--- a/Enovia-3DExperience/src/test/resources/Repository.xlsx
+++ b/Enovia-3DExperience/src/test/resources/Repository.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
   <si>
     <t>Type</t>
   </si>
@@ -437,6 +437,291 @@
   </si>
   <si>
     <t>Part-0000242-01</t>
+  </si>
+  <si>
+    <t>Part-0000246-01</t>
+  </si>
+  <si>
+    <t>Part-0000247-01</t>
+  </si>
+  <si>
+    <t>Part-0000253-01</t>
+  </si>
+  <si>
+    <t>Part-0000254-01</t>
+  </si>
+  <si>
+    <t>Part-0000255-01</t>
+  </si>
+  <si>
+    <t>Part-0000256-01</t>
+  </si>
+  <si>
+    <t>Part-0000257-01</t>
+  </si>
+  <si>
+    <t>Part-0000258-01</t>
+  </si>
+  <si>
+    <t>Part-0000259-01</t>
+  </si>
+  <si>
+    <t>Part-0000260-01</t>
+  </si>
+  <si>
+    <t>Part-0000261-01</t>
+  </si>
+  <si>
+    <t>Part-0000262-01</t>
+  </si>
+  <si>
+    <t>Part-0000263-01</t>
+  </si>
+  <si>
+    <t>Part-0000264-01</t>
+  </si>
+  <si>
+    <t>Part-0000265-01</t>
+  </si>
+  <si>
+    <t>Part-0000266-01</t>
+  </si>
+  <si>
+    <t>Part-0000267-01</t>
+  </si>
+  <si>
+    <t>Part-0000268-01</t>
+  </si>
+  <si>
+    <t>Part-0000269-01</t>
+  </si>
+  <si>
+    <t>Part-0000270-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000271-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000272-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000273-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000274-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000275-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000276-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000277-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000278-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000280-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000281-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000282-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000283-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000284-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000285-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000286-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000287-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000288-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000290-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000291-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000292-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000293-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000295-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000296-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000297-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000298-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000299-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000300-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000301-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000302-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000303-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000304-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000305-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000306-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000307-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000308-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000309-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000310-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000311-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000312-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000313-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000314-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000315-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000316-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000317-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000318-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000319-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000320-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000321-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000322-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000323-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000324-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000325-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000326-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000327-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000328-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000329-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000330-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000331-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000332-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000333-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000334-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000335-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000336-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000337-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000338-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000339-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000340-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000341-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000342-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000343-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000344-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000345-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000346-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000347-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000348-01</t>
   </si>
 </sst>
 </file>
@@ -1480,12 +1765,12 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Enovia-3DExperience/src/test/resources/Repository.xlsx
+++ b/Enovia-3DExperience/src/test/resources/Repository.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="249">
   <si>
     <t>Type</t>
   </si>
@@ -722,6 +722,72 @@
   </si>
   <si>
     <t>Part-48851417-0000348-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000349-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000350-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000351-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000352-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000353-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000354-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000355-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000356-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000357-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000358-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000359-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000360-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000363-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000364-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000365-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000366-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000367-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000368-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000369-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000370-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000371-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000372-01</t>
   </si>
 </sst>
 </file>
@@ -1765,12 +1831,12 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Enovia-3DExperience/src/test/resources/Repository.xlsx
+++ b/Enovia-3DExperience/src/test/resources/Repository.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="253">
   <si>
     <t>Type</t>
   </si>
@@ -788,6 +788,18 @@
   </si>
   <si>
     <t>Part-48851417-0000372-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000373-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000374-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000375-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000376-01</t>
   </si>
 </sst>
 </file>
@@ -1831,12 +1843,12 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/Enovia-3DExperience/src/test/resources/Repository.xlsx
+++ b/Enovia-3DExperience/src/test/resources/Repository.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="255">
   <si>
     <t>Type</t>
   </si>
@@ -800,6 +800,12 @@
   </si>
   <si>
     <t>Part-48851417-0000376-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000377-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000378-01</t>
   </si>
 </sst>
 </file>
@@ -1843,12 +1849,12 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Enovia-3DExperience/src/test/resources/Repository.xlsx
+++ b/Enovia-3DExperience/src/test/resources/Repository.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="257">
   <si>
     <t>Type</t>
   </si>
@@ -806,6 +806,12 @@
   </si>
   <si>
     <t>Part-48851417-0000378-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000381-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000382-01</t>
   </si>
 </sst>
 </file>
@@ -1849,12 +1855,12 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Enovia-3DExperience/src/test/resources/Repository.xlsx
+++ b/Enovia-3DExperience/src/test/resources/Repository.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="260">
   <si>
     <t>Type</t>
   </si>
@@ -812,6 +812,15 @@
   </si>
   <si>
     <t>Part-48851417-0000382-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000384-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000385-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000389-01</t>
   </si>
 </sst>
 </file>
@@ -1855,12 +1864,12 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Enovia-3DExperience/src/test/resources/Repository.xlsx
+++ b/Enovia-3DExperience/src/test/resources/Repository.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="261">
   <si>
     <t>Type</t>
   </si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>Part-48851417-0000389-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000394-01</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1867,7 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">

--- a/Enovia-3DExperience/src/test/resources/Repository.xlsx
+++ b/Enovia-3DExperience/src/test/resources/Repository.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="262">
   <si>
     <t>Type</t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>Part-48851417-0000394-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000398-01</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">

--- a/Enovia-3DExperience/src/test/resources/Repository.xlsx
+++ b/Enovia-3DExperience/src/test/resources/Repository.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="267">
   <si>
     <t>Type</t>
   </si>
@@ -827,6 +827,21 @@
   </si>
   <si>
     <t>Part-48851417-0000398-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000399-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000400-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000402-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000404-01</t>
+  </si>
+  <si>
+    <t>Part-48851417-0000406-01</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1885,7 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
